--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>NOME</t>
   </si>
@@ -57,6 +57,12 @@
     <t>jardson@gmail.com</t>
   </si>
   <si>
+    <t>KARLOS MV (W8)</t>
+  </si>
+  <si>
+    <t>3a6e38f09a011776bd2d5d0f26815e40</t>
+  </si>
+  <si>
     <t>GENIVALDO FREITAS (CLIENTE 01/20)</t>
   </si>
   <si>
@@ -90,7 +96,7 @@
     <t>VENDA 03 (17/09)</t>
   </si>
   <si>
-    <t>SERGIO (CLIENTE 04)</t>
+    <t>SERGIO (CLIENTE 04/20)</t>
   </si>
   <si>
     <t>32c5079bf1e91336952ba201b3c6332c</t>
@@ -99,7 +105,7 @@
     <t>VENDA 04 (21/09)</t>
   </si>
   <si>
-    <t>EDSON  BARRETO</t>
+    <t>EDSON  BARRETO (CLIENTE 05/20)</t>
   </si>
   <si>
     <t>ff5eb9588e2333c5538f349a0a76f2f2</t>
@@ -108,7 +114,7 @@
     <t>VENDA 05 (21/09)</t>
   </si>
   <si>
-    <t>WALTER FREIRE</t>
+    <t>WALTER FREIRE (CLIENTE 06/20)</t>
   </si>
   <si>
     <t>08bf5fb81a12fdd37bcc6574fb06a54</t>
@@ -117,7 +123,7 @@
     <t>VENDA 06 (22/09)</t>
   </si>
   <si>
-    <t>HAREF MACIEL</t>
+    <t>HAREF MACIEL (CLIENTE 07/20)</t>
   </si>
   <si>
     <t>4f406d12c88724d525a41c2b1dea206a</t>
@@ -584,16 +590,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>44821.0</v>
+        <v>44806.0</v>
       </c>
       <c r="E4" s="8">
-        <v>8.0</v>
+        <v>60.0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -601,10 +607,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
         <v>44821.0</v>
@@ -613,10 +619,10 @@
         <v>8.0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -624,22 +630,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="7">
-        <v>44822.0</v>
+        <v>44821.0</v>
       </c>
       <c r="E6" s="8">
         <v>8.0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -647,10 +653,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="7">
         <v>44822.0</v>
@@ -659,10 +665,10 @@
         <v>8.0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -670,20 +676,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="D8" s="7">
-        <v>44825.0</v>
+        <v>44822.0</v>
       </c>
       <c r="E8" s="8">
         <v>8.0</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -691,20 +699,20 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="D9" s="7">
-        <v>44826.0</v>
+        <v>44825.0</v>
       </c>
       <c r="E9" s="8">
         <v>8.0</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -712,10 +720,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="D10" s="7">
         <v>44826.0</v>
@@ -725,19 +733,29 @@
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
         <v>10.0</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7">
+        <v>44826.0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>8.0</v>
+      </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>NOME</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>VENDA 07 (22/09)</t>
+  </si>
+  <si>
+    <t>TESTE EDSON</t>
+  </si>
+  <si>
+    <t>530d170cb3487d322dbc4f7c8d853417</t>
   </si>
 </sst>
 </file>
@@ -805,10 +811,18 @@
       <c r="A16" s="5">
         <v>15.0</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
+      <c r="B16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="7">
+        <v>44826.0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>8.0</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>NOME</t>
   </si>
@@ -63,7 +63,7 @@
     <t>3a6e38f09a011776bd2d5d0f26815e40</t>
   </si>
   <si>
-    <t>GENIVALDO FREITAS (CLIENTE 01/20)</t>
+    <t>GENIVALDO FREITAS</t>
   </si>
   <si>
     <t>9bca29f5c21ce76bcf724b5b4afd6516</t>
@@ -75,7 +75,7 @@
     <t>VENDA 01 (17/09)</t>
   </si>
   <si>
-    <t>PROFESSOR (CLIENTE 02/20)</t>
+    <t>PROFESSOR</t>
   </si>
   <si>
     <t>4fac2de63202baf4be13e74731beeb40</t>
@@ -87,7 +87,7 @@
     <t>VENDA 02 (17/09)</t>
   </si>
   <si>
-    <t>JOHTRADER (CLIENTE 03/20)</t>
+    <t>JOHTRADER</t>
   </si>
   <si>
     <t>9e0106a43a506d72fb2d7403a6191b06</t>
@@ -96,7 +96,7 @@
     <t>VENDA 03 (17/09)</t>
   </si>
   <si>
-    <t>SERGIO (CLIENTE 04/20)</t>
+    <t>SERGIO</t>
   </si>
   <si>
     <t>32c5079bf1e91336952ba201b3c6332c</t>
@@ -105,7 +105,7 @@
     <t>VENDA 04 (21/09)</t>
   </si>
   <si>
-    <t>EDSON  BARRETO (CLIENTE 05/20)</t>
+    <t>EDSON  BARRETO</t>
   </si>
   <si>
     <t>ff5eb9588e2333c5538f349a0a76f2f2</t>
@@ -114,7 +114,7 @@
     <t>VENDA 05 (21/09)</t>
   </si>
   <si>
-    <t>WALTER FREIRE (CLIENTE 06/20)</t>
+    <t>WALTER FREIRE</t>
   </si>
   <si>
     <t>08bf5fb81a12fdd37bcc6574fb06a54</t>
@@ -123,13 +123,19 @@
     <t>VENDA 06 (22/09)</t>
   </si>
   <si>
-    <t>HAREF MACIEL (CLIENTE 07/20)</t>
+    <t>HAREF MACIEL</t>
   </si>
   <si>
     <t>4f406d12c88724d525a41c2b1dea206a</t>
   </si>
   <si>
     <t>VENDA 07 (22/09)</t>
+  </si>
+  <si>
+    <t>BETO VANN</t>
+  </si>
+  <si>
+    <t>78344205dc654f4716888e8fb4e3cf10</t>
   </si>
   <si>
     <t>TESTE EDSON</t>
@@ -767,10 +773,18 @@
       <c r="A12" s="5">
         <v>11.0</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
+      <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="7">
+        <v>44827.0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>8.0</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
@@ -812,10 +826,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
         <v>44826.0</v>

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -117,7 +117,7 @@
     <t>WALTER FREIRE</t>
   </si>
   <si>
-    <t>08bf5fb81a12fdd37bcc6574fb06a54</t>
+    <t>08bf5fb81a12fdd37bcc65747fb06a54</t>
   </si>
   <si>
     <t>VENDA 06 (22/09)</t>

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -628,7 +628,7 @@
         <v>44821.0</v>
       </c>
       <c r="E5" s="8">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>17</v>
@@ -651,7 +651,7 @@
         <v>44821.0</v>
       </c>
       <c r="E6" s="8">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
@@ -674,7 +674,7 @@
         <v>44822.0</v>
       </c>
       <c r="E7" s="8">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>21</v>
@@ -697,7 +697,7 @@
         <v>44822.0</v>
       </c>
       <c r="E8" s="8">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>21</v>
@@ -720,7 +720,7 @@
         <v>44825.0</v>
       </c>
       <c r="E9" s="8">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6" t="s">
@@ -741,7 +741,7 @@
         <v>44826.0</v>
       </c>
       <c r="E10" s="8">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="6" t="s">
@@ -762,7 +762,7 @@
         <v>44826.0</v>
       </c>
       <c r="E11" s="8">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="6" t="s">
@@ -783,7 +783,7 @@
         <v>44827.0</v>
       </c>
       <c r="E12" s="8">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -123,10 +123,10 @@
     <t>VENDA 06 (22/09)</t>
   </si>
   <si>
-    <t>HAREF MACIEL</t>
-  </si>
-  <si>
-    <t>4f406d12c88724d525a41c2b1dea206a</t>
+    <t>MIRIAN GONÇALVES</t>
+  </si>
+  <si>
+    <t>dc8f532d890d2fc187f8fdc7bf906cbf</t>
   </si>
   <si>
     <t>VENDA 07 (22/09)</t>
@@ -759,10 +759,10 @@
         <v>36</v>
       </c>
       <c r="D11" s="7">
-        <v>44826.0</v>
+        <v>44830.0</v>
       </c>
       <c r="E11" s="8">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="6" t="s">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>NOME</t>
   </si>
@@ -138,10 +138,13 @@
     <t>78344205dc654f4716888e8fb4e3cf10</t>
   </si>
   <si>
+    <t>NILTON BISPO</t>
+  </si>
+  <si>
+    <t>7fb8603912d23d36b1c4c22f51f81385</t>
+  </si>
+  <si>
     <t>TESTE EDSON</t>
-  </si>
-  <si>
-    <t>530d170cb3487d322dbc4f7c8d853417</t>
   </si>
 </sst>
 </file>
@@ -792,10 +795,18 @@
       <c r="A13" s="5">
         <v>12.0</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7">
+        <v>44830.0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>9.0</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
@@ -826,11 +837,9 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="7">
         <v>44826.0</v>
       </c>

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>NOME</t>
   </si>
@@ -138,13 +138,7 @@
     <t>78344205dc654f4716888e8fb4e3cf10</t>
   </si>
   <si>
-    <t>NILTON BISPO</t>
-  </si>
-  <si>
-    <t>7fb8603912d23d36b1c4c22f51f81385</t>
-  </si>
-  <si>
-    <t>TESTE EDSON</t>
+    <t>VENDA 08 (22/09)</t>
   </si>
 </sst>
 </file>
@@ -631,7 +625,7 @@
         <v>44821.0</v>
       </c>
       <c r="E5" s="8">
-        <v>14.0</v>
+        <v>365.0</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>17</v>
@@ -654,7 +648,7 @@
         <v>44821.0</v>
       </c>
       <c r="E6" s="8">
-        <v>14.0</v>
+        <v>365.0</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
@@ -677,7 +671,7 @@
         <v>44822.0</v>
       </c>
       <c r="E7" s="8">
-        <v>13.0</v>
+        <v>365.0</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>21</v>
@@ -700,7 +694,7 @@
         <v>44822.0</v>
       </c>
       <c r="E8" s="8">
-        <v>13.0</v>
+        <v>365.0</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>21</v>
@@ -723,9 +717,11 @@
         <v>44825.0</v>
       </c>
       <c r="E9" s="8">
-        <v>12.0</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>365.0</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G9" s="6" t="s">
         <v>31</v>
       </c>
@@ -744,9 +740,11 @@
         <v>44826.0</v>
       </c>
       <c r="E10" s="8">
-        <v>11.0</v>
-      </c>
-      <c r="F10" s="10"/>
+        <v>365.0</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G10" s="6" t="s">
         <v>34</v>
       </c>
@@ -765,9 +763,11 @@
         <v>44830.0</v>
       </c>
       <c r="E11" s="8">
-        <v>9.0</v>
-      </c>
-      <c r="F11" s="10"/>
+        <v>365.0</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" s="6" t="s">
         <v>37</v>
       </c>
@@ -783,30 +783,26 @@
         <v>39</v>
       </c>
       <c r="D12" s="7">
-        <v>44827.0</v>
+        <v>44830.0</v>
       </c>
       <c r="E12" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+        <v>365.0</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
         <v>12.0</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="7">
-        <v>44830.0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>9.0</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
@@ -836,16 +832,10 @@
       <c r="A16" s="5">
         <v>15.0</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="7">
-        <v>44826.0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>8.0</v>
-      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>NOME</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>VENDA 08 (22/09)</t>
+  </si>
+  <si>
+    <t>ABRAÃO MOREIRA</t>
+  </si>
+  <si>
+    <t>c8ea0d0ad755b73242ba6f43e8c23c6f</t>
+  </si>
+  <si>
+    <t>VENDA 08 (29/09)</t>
   </si>
 </sst>
 </file>
@@ -799,12 +808,24 @@
       <c r="A13" s="5">
         <v>12.0</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="B13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="7">
+        <v>44833.0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>365.0</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>NOME</t>
   </si>
@@ -147,7 +147,16 @@
     <t>c8ea0d0ad755b73242ba6f43e8c23c6f</t>
   </si>
   <si>
-    <t>VENDA 08 (29/09)</t>
+    <t>VENDA 09 (29/09)</t>
+  </si>
+  <si>
+    <t>ISAQUE GOMES</t>
+  </si>
+  <si>
+    <t>e15c263fbb0290b7886838113821ff8b</t>
+  </si>
+  <si>
+    <t>VENDA 10 (29/09)</t>
   </si>
 </sst>
 </file>
@@ -831,12 +840,24 @@
       <c r="A14" s="5">
         <v>13.0</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7">
+        <v>44833.0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>365.0</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -144,7 +144,7 @@
     <t>ABRAÃO MOREIRA</t>
   </si>
   <si>
-    <t>c8ea0d0ad755b73242ba6f43e8c23c6f</t>
+    <t>e602b536c8fade36e920b3cae46bedf1</t>
   </si>
   <si>
     <t>VENDA 09 (29/09)</t>

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -141,13 +141,13 @@
     <t>VENDA 08 (22/09)</t>
   </si>
   <si>
-    <t>ABRAÃO MOREIRA</t>
-  </si>
-  <si>
-    <t>e602b536c8fade36e920b3cae46bedf1</t>
-  </si>
-  <si>
-    <t>VENDA 09 (29/09)</t>
+    <t>SILVIO TADEU</t>
+  </si>
+  <si>
+    <t>350b8ddaabcd000fb6470ca8c0e11441</t>
+  </si>
+  <si>
+    <t>VENDA 09 (03/10)</t>
   </si>
   <si>
     <t>ISAQUE GOMES</t>
@@ -824,7 +824,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>44833.0</v>
+        <v>44837.0</v>
       </c>
       <c r="E13" s="8">
         <v>365.0</v>

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -66,7 +66,7 @@
     <t>GENIVALDO FREITAS</t>
   </si>
   <si>
-    <t>9bca29f5c21ce76bcf724b5b4afd6516</t>
+    <t>c22e3778c01c928fe0226272dd13ac9b</t>
   </si>
   <si>
     <t>@Genivaldofreitas (telegram)</t>

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>NOME</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>VENDA 10 (29/09)</t>
+  </si>
+  <si>
+    <t>FELIPE S.</t>
+  </si>
+  <si>
+    <t>d700bacde97c58b7cc8d0b53476b5697</t>
+  </si>
+  <si>
+    <t>VENDA 11 (09/10)</t>
   </si>
 </sst>
 </file>
@@ -863,12 +872,24 @@
       <c r="A15" s="5">
         <v>14.0</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="B15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7">
+        <v>44843.0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>365.0</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>NOME</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>VENDA 11 (09/10)</t>
+  </si>
+  <si>
+    <t>VANDER LUIS</t>
+  </si>
+  <si>
+    <t>46faf0b02e80945f4d911de265fda99a</t>
+  </si>
+  <si>
+    <t>VENDA 12 (17/10)</t>
   </si>
 </sst>
 </file>
@@ -895,12 +904,24 @@
       <c r="A16" s="5">
         <v>15.0</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="B16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7">
+        <v>44851.0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>365.0</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>NOME</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>VENDA 12 (17/10)</t>
+  </si>
+  <si>
+    <t>VINÍCIUS MAGALHAES</t>
+  </si>
+  <si>
+    <t>845fe7b09dcc017e7c32bcab915228a9</t>
+  </si>
+  <si>
+    <t>VENDA 13 (17/10)</t>
   </si>
 </sst>
 </file>
@@ -927,12 +936,24 @@
       <c r="A17" s="5">
         <v>16.0</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="7">
+        <v>44851.0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>365.0</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>NOME</t>
   </si>
@@ -184,6 +184,24 @@
   </si>
   <si>
     <t>VENDA 13 (17/10)</t>
+  </si>
+  <si>
+    <t>SEBASTIÃO RIBEIRO</t>
+  </si>
+  <si>
+    <t>3c37cf19c41b99b64802f52125eef859</t>
+  </si>
+  <si>
+    <t>VENDA 14 (17/10)</t>
+  </si>
+  <si>
+    <t>ALINE BASIOTE</t>
+  </si>
+  <si>
+    <t>6af5116ffbe72b8492b9aa4a8b6e589e</t>
+  </si>
+  <si>
+    <t>VENDA 15 (17/10)</t>
   </si>
 </sst>
 </file>
@@ -959,23 +977,47 @@
       <c r="A18" s="5">
         <v>17.0</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="B18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="7">
+        <v>44851.0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>365.0</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
         <v>18.0</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="B19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="7">
+        <v>44851.0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>365.0</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjjjavoFFBJ+0dnc0nCslMFeWUdjA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhhiGEF5LDQpvPXgnyfNnfG9B1K0A=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>NOME</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>VENDA 15 (17/10)</t>
+  </si>
+  <si>
+    <t>ANTONIO VIEIRA</t>
+  </si>
+  <si>
+    <t>533ae974ff5ab9eaed4a9f8074909ec5</t>
+  </si>
+  <si>
+    <t>VENDA 16 (18/10)</t>
   </si>
 </sst>
 </file>
@@ -292,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -300,18 +309,30 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -320,16 +341,7 @@
     <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -727,7 +739,7 @@
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="7">
@@ -957,7 +969,7 @@
       <c r="B17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D17" s="7">
@@ -1023,214 +1035,226 @@
       <c r="A20" s="5">
         <v>19.0</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="B20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="11">
+        <v>44852.0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>365.0</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
         <v>20.0</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22">
       <c r="A22" s="5">
         <v>21.0</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23">
       <c r="A23" s="5">
         <v>22.0</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24">
       <c r="A24" s="5">
         <v>23.0</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25">
       <c r="A25" s="5">
         <v>24.0</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26">
       <c r="A26" s="5">
         <v>25.0</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27">
       <c r="A27" s="5">
         <v>26.0</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28">
       <c r="A28" s="5">
         <v>27.0</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29">
       <c r="A29" s="5">
         <v>28.0</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30">
       <c r="A30" s="5">
         <v>29.0</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31">
       <c r="A31" s="5">
         <v>30.0</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32">
       <c r="A32" s="5">
         <v>31.0</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33">
       <c r="A33" s="5">
         <v>32.0</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34">
       <c r="A34" s="5">
         <v>33.0</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35">
       <c r="A35" s="5">
         <v>34.0</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36">
       <c r="A36" s="5">
         <v>35.0</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37">
       <c r="A37" s="5">
         <v>36.0</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38">
       <c r="A38" s="5">
         <v>37.0</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39">
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E1">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>NOME</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>VENDA 16 (18/10)</t>
+  </si>
+  <si>
+    <t>BEBETO SANTOS</t>
+  </si>
+  <si>
+    <t>dad3165d0cd51465c2f4943c1053ea42</t>
+  </si>
+  <si>
+    <t>VENDA 17 (18/10)</t>
   </si>
 </sst>
 </file>
@@ -1058,12 +1067,24 @@
       <c r="A21" s="5">
         <v>20.0</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="B21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="11">
+        <v>44852.0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>365.0</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>NOME</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>VENDA 17 (18/10)</t>
+  </si>
+  <si>
+    <t>EDENILSON SILVA</t>
+  </si>
+  <si>
+    <t>e26d1cd1918b4c7d99e4509543ea983a</t>
+  </si>
+  <si>
+    <t>VENDA 18 (18/10)</t>
   </si>
 </sst>
 </file>
@@ -1090,12 +1099,24 @@
       <c r="A22" s="5">
         <v>21.0</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="B22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="11">
+        <v>44852.0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>365.0</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>NOME</t>
   </si>
@@ -229,6 +229,24 @@
   </si>
   <si>
     <t>VENDA 18 (18/10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CESAR AUGUSTO </t>
+  </si>
+  <si>
+    <t>b3586279d9d3129597b2778d61367179</t>
+  </si>
+  <si>
+    <t>VENDA 19 (20/10)</t>
+  </si>
+  <si>
+    <t>FERNANDO BRITO</t>
+  </si>
+  <si>
+    <t>7687deae1489a0478188e4675601a77b</t>
+  </si>
+  <si>
+    <t>VENDA 20 (20/10)</t>
   </si>
 </sst>
 </file>
@@ -1122,23 +1140,47 @@
       <c r="A23" s="5">
         <v>22.0</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="B23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="11">
+        <v>44854.0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>365.0</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
         <v>23.0</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="11">
+        <v>44854.0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>365.0</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -234,7 +234,7 @@
     <t xml:space="preserve">CESAR AUGUSTO </t>
   </si>
   <si>
-    <t>b3586279d9d3129597b2778d61367179</t>
+    <t>99c18be551fde7ea3d7957e6d1146cf5</t>
   </si>
   <si>
     <t>VENDA 19 (20/10)</t>
@@ -1143,7 +1143,7 @@
       <c r="B23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D23" s="11">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -189,7 +189,7 @@
     <t>SEBASTIÃO RIBEIRO</t>
   </si>
   <si>
-    <t>3c37cf19c41b99b64802f52125eef859</t>
+    <t>a78d6263a17e07a2ac2132a3cc3b72ba</t>
   </si>
   <si>
     <t>VENDA 14 (17/10)</t>
@@ -1028,7 +1028,7 @@
       <c r="B18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="7">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
   <si>
     <t>NOME</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>VENDA 20 (20/10)</t>
+  </si>
+  <si>
+    <t>DANIELE LOPES</t>
+  </si>
+  <si>
+    <t>461c508d51e4a2193a8c7a9335877607</t>
+  </si>
+  <si>
+    <t>VENDA 21 (20/10)</t>
   </si>
 </sst>
 </file>
@@ -1186,12 +1195,24 @@
       <c r="A25" s="5">
         <v>24.0</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="B25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="11">
+        <v>44855.0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>365.0</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -189,7 +189,7 @@
     <t>SEBASTIÃO RIBEIRO</t>
   </si>
   <si>
-    <t>a78d6263a17e07a2ac2132a3cc3b72ba</t>
+    <t>d4a78634fa68591f001d25a1cd1faa01</t>
   </si>
   <si>
     <t>VENDA 14 (17/10)</t>

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -193,7 +193,7 @@
     <t xml:space="preserve">SEBASTIÃO RIBEIRO</t>
   </si>
   <si>
-    <t xml:space="preserve">d4a78634fa68591f001d25a1cd1faa01</t>
+    <t xml:space="preserve">3c37cf19c41b99b64802f52125eef859</t>
   </si>
   <si>
     <t xml:space="preserve">VENDA 14 (17/10)</t>
@@ -407,6 +407,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,10 +445,6 @@
     </xf>
     <xf numFmtId="168" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -547,752 +547,751 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="38.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="8" t="n">
         <v>44819</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="8" t="n">
         <v>44806</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="8" t="n">
         <v>44806</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="8" t="n">
         <v>44821</v>
       </c>
-      <c r="E5" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="8" t="n">
         <v>44821</v>
       </c>
-      <c r="E6" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="E6" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="8" t="n">
         <v>44822</v>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="8" t="n">
         <v>44822</v>
       </c>
-      <c r="E8" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="E8" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="8" t="n">
         <v>44825</v>
       </c>
-      <c r="E9" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="E9" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="8" t="n">
         <v>44826</v>
       </c>
-      <c r="E10" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="E10" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="8" t="n">
         <v>44830</v>
       </c>
-      <c r="E11" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="E11" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="8" t="n">
         <v>44830</v>
       </c>
-      <c r="E12" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="E12" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="8" t="n">
         <v>44837</v>
       </c>
-      <c r="E13" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="E13" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="8" t="n">
         <v>44833</v>
       </c>
-      <c r="E14" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="E14" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="8" t="n">
         <v>44843</v>
       </c>
-      <c r="E15" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="E15" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="8" t="n">
         <v>44851</v>
       </c>
-      <c r="E16" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="E16" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="8" t="n">
         <v>44851</v>
       </c>
-      <c r="E17" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="E17" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="8" t="n">
         <v>44851</v>
       </c>
-      <c r="E18" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="E18" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="8" t="n">
         <v>44851</v>
       </c>
-      <c r="E19" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="E19" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="8" t="n">
         <v>44852</v>
       </c>
-      <c r="E20" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="E20" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+      <c r="A21" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="8" t="n">
         <v>44852</v>
       </c>
-      <c r="E21" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="E21" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="8" t="n">
         <v>44852</v>
       </c>
-      <c r="E22" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="E22" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
+      <c r="A23" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="8" t="n">
         <v>44854</v>
       </c>
-      <c r="E23" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="E23" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+      <c r="A24" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="8" t="n">
         <v>44854</v>
       </c>
-      <c r="E24" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="E24" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
+      <c r="A25" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="7" t="n">
+      <c r="D25" s="8" t="n">
         <v>44855</v>
       </c>
-      <c r="E25" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="E25" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
+      <c r="A26" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="7" t="n">
+      <c r="D26" s="8" t="n">
         <v>44855</v>
       </c>
-      <c r="E26" s="8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="E26" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
+      <c r="A27" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+      <c r="A28" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
+      <c r="A29" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+      <c r="A30" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
+      <c r="A31" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
+      <c r="A32" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="n">
+      <c r="A33" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
+      <c r="A34" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="n">
+      <c r="A35" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
+      <c r="A36" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="n">
+      <c r="A37" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="n">
+      <c r="A38" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E1">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -220,7 +220,7 @@
     <t xml:space="preserve">BEBETO SANTOS</t>
   </si>
   <si>
-    <t xml:space="preserve">dad3165d0cd51465c2f4943c1053ea42</t>
+    <t xml:space="preserve">5f4cb48c0ad331085484acd234d7f73b</t>
   </si>
   <si>
     <t xml:space="preserve">VENDA 17 (18/10)</t>
@@ -426,8 +426,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -573,2580 +577,2580 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="38.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="8" t="n">
         <v>44819</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="8" t="n">
         <v>44806</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="8" t="n">
         <v>44806</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="8" t="n">
         <v>44821</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="8" t="n">
         <v>44821</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="8" t="n">
         <v>44822</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="8" t="n">
         <v>44822</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="8" t="n">
         <v>44825</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="8" t="n">
         <v>44826</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="8" t="n">
         <v>44830</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="8" t="n">
         <v>44830</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="8" t="n">
         <v>44837</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="8" t="n">
         <v>44833</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="8" t="n">
         <v>44843</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="8" t="n">
         <v>44851</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="8" t="n">
         <v>44851</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="8" t="n">
         <v>44851</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="8" t="n">
         <v>44851</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="8" t="n">
         <v>44852</v>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="E20" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+      <c r="A21" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="8" t="n">
         <v>44852</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+      <c r="A22" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="8" t="n">
         <v>44852</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
+      <c r="A23" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="8" t="n">
         <v>44854</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+      <c r="A24" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="8" t="n">
         <v>44854</v>
       </c>
-      <c r="E24" s="8" t="n">
+      <c r="E24" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
+      <c r="A25" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="7" t="n">
+      <c r="D25" s="8" t="n">
         <v>44855</v>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="E25" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
+      <c r="A26" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="7" t="n">
+      <c r="D26" s="8" t="n">
         <v>44855</v>
       </c>
-      <c r="E26" s="8" t="n">
+      <c r="E26" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="6"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
+      <c r="A27" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="7" t="n">
+      <c r="D27" s="8" t="n">
         <v>44856</v>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="E27" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+      <c r="A28" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="7" t="n">
+      <c r="D28" s="8" t="n">
         <v>44856</v>
       </c>
-      <c r="E28" s="8" t="n">
+      <c r="E28" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="6"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
+      <c r="A29" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="7" t="n">
+      <c r="D29" s="8" t="n">
         <v>44863</v>
       </c>
-      <c r="E29" s="8" t="n">
+      <c r="E29" s="9" t="n">
         <v>365</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+      <c r="A30" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
+      <c r="A31" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
+      <c r="A32" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="n">
+      <c r="A33" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
+      <c r="A34" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="n">
+      <c r="A35" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
+      <c r="A36" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="n">
+      <c r="A37" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="n">
+      <c r="A38" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="10"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="10"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="10"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="10"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="10"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="10"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="10"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="10"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="10"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="10"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
+      <c r="A149" s="11"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="10"/>
-      <c r="B152" s="10"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="10"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="10"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="10"/>
-      <c r="B157" s="10"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
+      <c r="A157" s="11"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="10"/>
-      <c r="B158" s="10"/>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
+      <c r="A158" s="11"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="10"/>
-      <c r="B159" s="10"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="10"/>
-      <c r="B160" s="10"/>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="10"/>
-      <c r="B161" s="10"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="10"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="10"/>
-      <c r="B163" s="10"/>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="10"/>
-      <c r="B164" s="10"/>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="10"/>
-      <c r="B165" s="10"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="10"/>
-      <c r="B166" s="10"/>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="10"/>
-      <c r="B167" s="10"/>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="10"/>
-      <c r="B168" s="10"/>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="10"/>
-      <c r="G168" s="10"/>
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="10"/>
-      <c r="B169" s="10"/>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10"/>
-      <c r="G169" s="10"/>
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="10"/>
-      <c r="B170" s="10"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="10"/>
-      <c r="G170" s="10"/>
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="10"/>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="10"/>
-      <c r="G171" s="10"/>
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="10"/>
-      <c r="B172" s="10"/>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="10"/>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="10"/>
-      <c r="B173" s="10"/>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
+      <c r="A173" s="11"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="10"/>
-      <c r="B174" s="10"/>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
+      <c r="A174" s="11"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="10"/>
-      <c r="B175" s="10"/>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
+      <c r="A175" s="11"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="10"/>
-      <c r="B176" s="10"/>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="10"/>
-      <c r="F176" s="10"/>
-      <c r="G176" s="10"/>
+      <c r="A176" s="11"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="10"/>
-      <c r="B177" s="10"/>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="10"/>
-      <c r="B178" s="10"/>
-      <c r="C178" s="10"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="10"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
+      <c r="A178" s="11"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="10"/>
-      <c r="B179" s="10"/>
-      <c r="C179" s="10"/>
-      <c r="D179" s="10"/>
-      <c r="E179" s="10"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="10"/>
-      <c r="B180" s="10"/>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="10"/>
-      <c r="B181" s="10"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="10"/>
-      <c r="B182" s="10"/>
-      <c r="C182" s="10"/>
-      <c r="D182" s="10"/>
-      <c r="E182" s="10"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="10"/>
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="10"/>
-      <c r="B183" s="10"/>
-      <c r="C183" s="10"/>
-      <c r="D183" s="10"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="10"/>
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="10"/>
-      <c r="B184" s="10"/>
-      <c r="C184" s="10"/>
-      <c r="D184" s="10"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="10"/>
-      <c r="B185" s="10"/>
-      <c r="C185" s="10"/>
-      <c r="D185" s="10"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="10"/>
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="10"/>
-      <c r="B186" s="10"/>
-      <c r="C186" s="10"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="10"/>
-      <c r="F186" s="10"/>
-      <c r="G186" s="10"/>
+      <c r="A186" s="11"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="10"/>
-      <c r="B187" s="10"/>
-      <c r="C187" s="10"/>
-      <c r="D187" s="10"/>
-      <c r="E187" s="10"/>
-      <c r="F187" s="10"/>
-      <c r="G187" s="10"/>
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="10"/>
-      <c r="B188" s="10"/>
-      <c r="C188" s="10"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10"/>
+      <c r="A188" s="11"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="10"/>
-      <c r="B189" s="10"/>
-      <c r="C189" s="10"/>
-      <c r="D189" s="10"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
-      <c r="G189" s="10"/>
+      <c r="A189" s="11"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="10"/>
-      <c r="B190" s="10"/>
-      <c r="C190" s="10"/>
-      <c r="D190" s="10"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
-      <c r="G190" s="10"/>
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="11"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="10"/>
-      <c r="B191" s="10"/>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
-      <c r="G191" s="10"/>
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="10"/>
-      <c r="B192" s="10"/>
-      <c r="C192" s="10"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
+      <c r="A192" s="11"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="11"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="10"/>
-      <c r="B193" s="10"/>
-      <c r="C193" s="10"/>
-      <c r="D193" s="10"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
+      <c r="A193" s="11"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="10"/>
-      <c r="B194" s="10"/>
-      <c r="C194" s="10"/>
-      <c r="D194" s="10"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
+      <c r="A194" s="11"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="10"/>
-      <c r="B195" s="10"/>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
+      <c r="A195" s="11"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="11"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="10"/>
-      <c r="B196" s="10"/>
-      <c r="C196" s="10"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
+      <c r="A196" s="11"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="10"/>
-      <c r="B197" s="10"/>
-      <c r="C197" s="10"/>
-      <c r="D197" s="10"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="10"/>
-      <c r="B198" s="10"/>
-      <c r="C198" s="10"/>
-      <c r="D198" s="10"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="10"/>
-      <c r="B199" s="10"/>
-      <c r="C199" s="10"/>
-      <c r="D199" s="10"/>
-      <c r="E199" s="10"/>
-      <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
+      <c r="A199" s="11"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="10"/>
-      <c r="B200" s="10"/>
-      <c r="C200" s="10"/>
-      <c r="D200" s="10"/>
-      <c r="E200" s="10"/>
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
+      <c r="A200" s="11"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="10"/>
-      <c r="B201" s="10"/>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
+      <c r="A201" s="11"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="10"/>
-      <c r="B202" s="10"/>
-      <c r="C202" s="10"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10"/>
+      <c r="A202" s="11"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="10"/>
-      <c r="B203" s="10"/>
-      <c r="C203" s="10"/>
-      <c r="D203" s="10"/>
-      <c r="E203" s="10"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
+      <c r="A203" s="11"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="11"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="10"/>
-      <c r="B204" s="10"/>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
+      <c r="A204" s="11"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="11"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="10"/>
-      <c r="B205" s="10"/>
-      <c r="C205" s="10"/>
-      <c r="D205" s="10"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
+      <c r="A205" s="11"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="11"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="10"/>
-      <c r="B206" s="10"/>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
+      <c r="A206" s="11"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="10"/>
-      <c r="B207" s="10"/>
-      <c r="C207" s="10"/>
-      <c r="D207" s="10"/>
-      <c r="E207" s="10"/>
-      <c r="F207" s="10"/>
-      <c r="G207" s="10"/>
+      <c r="A207" s="11"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11"/>
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="10"/>
-      <c r="B208" s="10"/>
-      <c r="C208" s="10"/>
-      <c r="D208" s="10"/>
-      <c r="E208" s="10"/>
-      <c r="F208" s="10"/>
-      <c r="G208" s="10"/>
+      <c r="A208" s="11"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="10"/>
-      <c r="B209" s="10"/>
-      <c r="C209" s="10"/>
-      <c r="D209" s="10"/>
-      <c r="E209" s="10"/>
-      <c r="F209" s="10"/>
-      <c r="G209" s="10"/>
+      <c r="A209" s="11"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="10"/>
-      <c r="B210" s="10"/>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
+      <c r="A210" s="11"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="10"/>
-      <c r="B211" s="10"/>
-      <c r="C211" s="10"/>
-      <c r="D211" s="10"/>
-      <c r="E211" s="10"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
+      <c r="A211" s="11"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
+      <c r="F211" s="11"/>
+      <c r="G211" s="11"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="10"/>
-      <c r="B212" s="10"/>
-      <c r="C212" s="10"/>
-      <c r="D212" s="10"/>
-      <c r="E212" s="10"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
+      <c r="A212" s="11"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
+      <c r="F212" s="11"/>
+      <c r="G212" s="11"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="10"/>
-      <c r="B213" s="10"/>
-      <c r="C213" s="10"/>
-      <c r="D213" s="10"/>
-      <c r="E213" s="10"/>
-      <c r="F213" s="10"/>
-      <c r="G213" s="10"/>
+      <c r="A213" s="11"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="10"/>
-      <c r="B214" s="10"/>
-      <c r="C214" s="10"/>
-      <c r="D214" s="10"/>
-      <c r="E214" s="10"/>
-      <c r="F214" s="10"/>
-      <c r="G214" s="10"/>
+      <c r="A214" s="11"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11"/>
+      <c r="F214" s="11"/>
+      <c r="G214" s="11"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="10"/>
-      <c r="B215" s="10"/>
-      <c r="C215" s="10"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
+      <c r="A215" s="11"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="11"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
+      <c r="F215" s="11"/>
+      <c r="G215" s="11"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="10"/>
-      <c r="B216" s="10"/>
-      <c r="C216" s="10"/>
-      <c r="D216" s="10"/>
-      <c r="E216" s="10"/>
-      <c r="F216" s="10"/>
-      <c r="G216" s="10"/>
+      <c r="A216" s="11"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="11"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11"/>
+      <c r="F216" s="11"/>
+      <c r="G216" s="11"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="10"/>
-      <c r="B217" s="10"/>
-      <c r="C217" s="10"/>
-      <c r="D217" s="10"/>
-      <c r="E217" s="10"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10"/>
+      <c r="A217" s="11"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="11"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="11"/>
+      <c r="F217" s="11"/>
+      <c r="G217" s="11"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="10"/>
-      <c r="B218" s="10"/>
-      <c r="C218" s="10"/>
-      <c r="D218" s="10"/>
-      <c r="E218" s="10"/>
-      <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
+      <c r="A218" s="11"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="11"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="11"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="10"/>
-      <c r="B219" s="10"/>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
-      <c r="E219" s="10"/>
-      <c r="F219" s="10"/>
-      <c r="G219" s="10"/>
+      <c r="A219" s="11"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="10"/>
-      <c r="B220" s="10"/>
-      <c r="C220" s="10"/>
-      <c r="D220" s="10"/>
-      <c r="E220" s="10"/>
-      <c r="F220" s="10"/>
-      <c r="G220" s="10"/>
+      <c r="A220" s="11"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
+      <c r="G220" s="11"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="10"/>
-      <c r="B221" s="10"/>
-      <c r="C221" s="10"/>
-      <c r="D221" s="10"/>
-      <c r="E221" s="10"/>
-      <c r="F221" s="10"/>
-      <c r="G221" s="10"/>
+      <c r="A221" s="11"/>
+      <c r="B221" s="11"/>
+      <c r="C221" s="11"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
+      <c r="F221" s="11"/>
+      <c r="G221" s="11"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="10"/>
-      <c r="B222" s="10"/>
-      <c r="C222" s="10"/>
-      <c r="D222" s="10"/>
-      <c r="E222" s="10"/>
-      <c r="F222" s="10"/>
-      <c r="G222" s="10"/>
+      <c r="A222" s="11"/>
+      <c r="B222" s="11"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
+      <c r="F222" s="11"/>
+      <c r="G222" s="11"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="10"/>
-      <c r="B223" s="10"/>
-      <c r="C223" s="10"/>
-      <c r="D223" s="10"/>
-      <c r="E223" s="10"/>
-      <c r="F223" s="10"/>
-      <c r="G223" s="10"/>
+      <c r="A223" s="11"/>
+      <c r="B223" s="11"/>
+      <c r="C223" s="11"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
+      <c r="F223" s="11"/>
+      <c r="G223" s="11"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="10"/>
-      <c r="B224" s="10"/>
-      <c r="C224" s="10"/>
-      <c r="D224" s="10"/>
-      <c r="E224" s="10"/>
-      <c r="F224" s="10"/>
-      <c r="G224" s="10"/>
+      <c r="A224" s="11"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
+      <c r="F224" s="11"/>
+      <c r="G224" s="11"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="10"/>
-      <c r="B225" s="10"/>
-      <c r="C225" s="10"/>
-      <c r="D225" s="10"/>
-      <c r="E225" s="10"/>
-      <c r="F225" s="10"/>
-      <c r="G225" s="10"/>
+      <c r="A225" s="11"/>
+      <c r="B225" s="11"/>
+      <c r="C225" s="11"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11"/>
+      <c r="F225" s="11"/>
+      <c r="G225" s="11"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="10"/>
-      <c r="B226" s="10"/>
-      <c r="C226" s="10"/>
-      <c r="D226" s="10"/>
-      <c r="E226" s="10"/>
-      <c r="F226" s="10"/>
-      <c r="G226" s="10"/>
+      <c r="A226" s="11"/>
+      <c r="B226" s="11"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
+      <c r="F226" s="11"/>
+      <c r="G226" s="11"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="10"/>
-      <c r="B227" s="10"/>
-      <c r="C227" s="10"/>
-      <c r="D227" s="10"/>
-      <c r="E227" s="10"/>
-      <c r="F227" s="10"/>
-      <c r="G227" s="10"/>
+      <c r="A227" s="11"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="11"/>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11"/>
+      <c r="F227" s="11"/>
+      <c r="G227" s="11"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="10"/>
-      <c r="B228" s="10"/>
-      <c r="C228" s="10"/>
-      <c r="D228" s="10"/>
-      <c r="E228" s="10"/>
-      <c r="F228" s="10"/>
-      <c r="G228" s="10"/>
+      <c r="A228" s="11"/>
+      <c r="B228" s="11"/>
+      <c r="C228" s="11"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11"/>
+      <c r="F228" s="11"/>
+      <c r="G228" s="11"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="10"/>
-      <c r="B229" s="10"/>
-      <c r="C229" s="10"/>
-      <c r="D229" s="10"/>
-      <c r="E229" s="10"/>
-      <c r="F229" s="10"/>
-      <c r="G229" s="10"/>
+      <c r="A229" s="11"/>
+      <c r="B229" s="11"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="10"/>
-      <c r="B230" s="10"/>
-      <c r="C230" s="10"/>
-      <c r="D230" s="10"/>
-      <c r="E230" s="10"/>
-      <c r="F230" s="10"/>
-      <c r="G230" s="10"/>
+      <c r="A230" s="11"/>
+      <c r="B230" s="11"/>
+      <c r="C230" s="11"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
+      <c r="G230" s="11"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="10"/>
-      <c r="B231" s="10"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="10"/>
-      <c r="E231" s="10"/>
-      <c r="F231" s="10"/>
-      <c r="G231" s="10"/>
+      <c r="A231" s="11"/>
+      <c r="B231" s="11"/>
+      <c r="C231" s="11"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11"/>
+      <c r="F231" s="11"/>
+      <c r="G231" s="11"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="10"/>
-      <c r="B232" s="10"/>
-      <c r="C232" s="10"/>
-      <c r="D232" s="10"/>
-      <c r="E232" s="10"/>
-      <c r="F232" s="10"/>
-      <c r="G232" s="10"/>
+      <c r="A232" s="11"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
+      <c r="G232" s="11"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="10"/>
-      <c r="B233" s="10"/>
-      <c r="C233" s="10"/>
-      <c r="D233" s="10"/>
-      <c r="E233" s="10"/>
-      <c r="F233" s="10"/>
-      <c r="G233" s="10"/>
+      <c r="A233" s="11"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="11"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11"/>
+      <c r="G233" s="11"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="10"/>
-      <c r="B234" s="10"/>
-      <c r="C234" s="10"/>
-      <c r="D234" s="10"/>
-      <c r="E234" s="10"/>
-      <c r="F234" s="10"/>
-      <c r="G234" s="10"/>
+      <c r="A234" s="11"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11"/>
+      <c r="F234" s="11"/>
+      <c r="G234" s="11"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="10"/>
-      <c r="B235" s="10"/>
-      <c r="C235" s="10"/>
-      <c r="D235" s="10"/>
-      <c r="E235" s="10"/>
-      <c r="F235" s="10"/>
-      <c r="G235" s="10"/>
+      <c r="A235" s="11"/>
+      <c r="B235" s="11"/>
+      <c r="C235" s="11"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
+      <c r="F235" s="11"/>
+      <c r="G235" s="11"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="10"/>
-      <c r="B236" s="10"/>
-      <c r="C236" s="10"/>
-      <c r="D236" s="10"/>
-      <c r="E236" s="10"/>
-      <c r="F236" s="10"/>
-      <c r="G236" s="10"/>
+      <c r="A236" s="11"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="11"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
+      <c r="F236" s="11"/>
+      <c r="G236" s="11"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="10"/>
-      <c r="B237" s="10"/>
-      <c r="C237" s="10"/>
-      <c r="D237" s="10"/>
-      <c r="E237" s="10"/>
-      <c r="F237" s="10"/>
-      <c r="G237" s="10"/>
+      <c r="A237" s="11"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
+      <c r="G237" s="11"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="10"/>
-      <c r="B238" s="10"/>
-      <c r="C238" s="10"/>
-      <c r="D238" s="10"/>
-      <c r="E238" s="10"/>
-      <c r="F238" s="10"/>
-      <c r="G238" s="10"/>
+      <c r="A238" s="11"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
+      <c r="F238" s="11"/>
+      <c r="G238" s="11"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t xml:space="preserve">NOME</t>
   </si>
@@ -199,15 +199,6 @@
     <t xml:space="preserve">VENDA 14 (17/10)</t>
   </si>
   <si>
-    <t xml:space="preserve">ALINE BASIOTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6af5116ffbe72b8492b9aa4a8b6e589e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENDA 15 (17/10)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ANTONIO VIEIRA</t>
   </si>
   <si>
@@ -235,33 +226,6 @@
     <t xml:space="preserve">VENDA 18 (18/10)</t>
   </si>
   <si>
-    <t xml:space="preserve">CESAR AUGUSTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">99c18be551fde7ea3d7957e6d1146cf5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENDA 19 (20/10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERNANDO BRITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7687deae1489a0478188e4675601a77b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENDA 20 (20/10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIELE LOPES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">461c508d51e4a2193a8c7a9335877607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENDA 21 (20/10)</t>
-  </si>
-  <si>
     <t xml:space="preserve">SERGIO (SOCIO JARDSON)</t>
   </si>
   <si>
@@ -290,6 +254,15 @@
   </si>
   <si>
     <t xml:space="preserve">VENDA 22 (29/10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIO FELIPE PEDROZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">da64cb3429de3cb92e83d5cb9e2d8f9e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENDA 23 (03/11)</t>
   </si>
 </sst>
 </file>
@@ -577,8 +550,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1015,7 +988,7 @@
         <v>60</v>
       </c>
       <c r="D19" s="8" t="n">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="E19" s="9" t="n">
         <v>365</v>
@@ -1084,7 +1057,7 @@
         <v>69</v>
       </c>
       <c r="D22" s="8" t="n">
-        <v>44852</v>
+        <v>44855</v>
       </c>
       <c r="E22" s="9" t="n">
         <v>365</v>
@@ -1093,7 +1066,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1101,13 +1074,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="D23" s="8" t="n">
-        <v>44854</v>
+        <v>44856</v>
       </c>
       <c r="E23" s="9" t="n">
         <v>365</v>
@@ -1116,7 +1089,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1124,13 +1097,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="D24" s="8" t="n">
-        <v>44854</v>
+        <v>44856</v>
       </c>
       <c r="E24" s="9" t="n">
         <v>365</v>
@@ -1139,7 +1112,7 @@
         <v>21</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1147,13 +1120,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8" t="n">
-        <v>44855</v>
+        <v>44863</v>
       </c>
       <c r="E25" s="9" t="n">
         <v>365</v>
@@ -1162,7 +1135,7 @@
         <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1170,13 +1143,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8" t="n">
-        <v>44855</v>
+        <v>44868</v>
       </c>
       <c r="E26" s="9" t="n">
         <v>365</v>
@@ -1184,74 +1157,42 @@
       <c r="F26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="8" t="n">
-        <v>44856</v>
-      </c>
-      <c r="E27" s="9" t="n">
-        <v>365</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>84</v>
-      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="8" t="n">
-        <v>44856</v>
-      </c>
-      <c r="E28" s="9" t="n">
-        <v>365</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="8" t="n">
-        <v>44863</v>
-      </c>
-      <c r="E29" s="9" t="n">
-        <v>365</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>89</v>
-      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <t xml:space="preserve">NOME</t>
   </si>
@@ -263,6 +263,15 @@
   </si>
   <si>
     <t xml:space="preserve">VENDA 23 (03/11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIQUE DIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f61b2c807e1830c0a03903780aa154ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENDA 24 (03/11)</t>
   </si>
 </sst>
 </file>
@@ -550,8 +559,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1165,12 +1174,24 @@
       <c r="A27" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>44868</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <t>NOME</t>
   </si>
@@ -261,22 +261,13 @@
     <t>VENDA 23 (03/11)</t>
   </si>
   <si>
-    <t>ALISSON CLIENTE</t>
-  </si>
-  <si>
-    <t>c8f5f90e4a7de64a0df059fa10d81ad0</t>
+    <t>LUCAS FERREIRA</t>
+  </si>
+  <si>
+    <t>63e791de722d99140ef7d37882f571d8</t>
   </si>
   <si>
     <t>VENDA 24 (08/11)</t>
-  </si>
-  <si>
-    <t>LUCAS FERREIRA</t>
-  </si>
-  <si>
-    <t>63e791de722d99140ef7d37882f571d8</t>
-  </si>
-  <si>
-    <t>VENDA 25 (08/11)</t>
   </si>
 </sst>
 </file>
@@ -402,15 +393,15 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="5" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -705,7 +696,7 @@
         <v>44819.0</v>
       </c>
       <c r="E2" s="8">
-        <v>60.0</v>
+        <v>365.0</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>8</v>
@@ -727,7 +718,7 @@
       <c r="D3" s="7">
         <v>44806.0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <v>365.0</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -750,7 +741,7 @@
       <c r="D4" s="7">
         <v>44806.0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <v>60.0</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -773,7 +764,7 @@
       <c r="D5" s="7">
         <v>44821.0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <v>365.0</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -796,7 +787,7 @@
       <c r="D6" s="7">
         <v>44821.0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <v>365.0</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -819,7 +810,7 @@
       <c r="D7" s="7">
         <v>44822.0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>365.0</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -842,7 +833,7 @@
       <c r="D8" s="7">
         <v>44822.0</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <v>365.0</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -865,7 +856,7 @@
       <c r="D9" s="7">
         <v>44825.0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <v>365.0</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -888,7 +879,7 @@
       <c r="D10" s="7">
         <v>44826.0</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <v>365.0</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -911,7 +902,7 @@
       <c r="D11" s="7">
         <v>44830.0</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <v>365.0</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -934,7 +925,7 @@
       <c r="D12" s="7">
         <v>44830.0</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <v>365.0</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -957,7 +948,7 @@
       <c r="D13" s="7">
         <v>44837.0</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <v>365.0</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -980,7 +971,7 @@
       <c r="D14" s="7">
         <v>44833.0</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="9">
         <v>365.0</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -1003,7 +994,7 @@
       <c r="D15" s="7">
         <v>44843.0</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="9">
         <v>365.0</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1026,7 +1017,7 @@
       <c r="D16" s="7">
         <v>44851.0</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="9">
         <v>365.0</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -1049,7 +1040,7 @@
       <c r="D17" s="7">
         <v>44851.0</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="9">
         <v>365.0</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1072,7 +1063,7 @@
       <c r="D18" s="7">
         <v>44851.0</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="9">
         <v>365.0</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -1095,7 +1086,7 @@
       <c r="D19" s="7">
         <v>44852.0</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="9">
         <v>365.0</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -1118,7 +1109,7 @@
       <c r="D20" s="7">
         <v>44852.0</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="9">
         <v>365.0</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -1141,7 +1132,7 @@
       <c r="D21" s="7">
         <v>44852.0</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="9">
         <v>365.0</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -1164,7 +1155,7 @@
       <c r="D22" s="7">
         <v>44855.0</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="9">
         <v>365.0</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -1187,7 +1178,7 @@
       <c r="D23" s="7">
         <v>44856.0</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="9">
         <v>365.0</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -1210,7 +1201,7 @@
       <c r="D24" s="7">
         <v>44856.0</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="9">
         <v>365.0</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -1233,7 +1224,7 @@
       <c r="D25" s="7">
         <v>44863.0</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="9">
         <v>365.0</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -1256,7 +1247,7 @@
       <c r="D26" s="7">
         <v>44868.0</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="9">
         <v>365.0</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -1270,22 +1261,22 @@
       <c r="A27" s="5">
         <v>26.0</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="11">
         <v>44873.0</v>
       </c>
       <c r="E27" s="8">
         <v>365.0</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="10" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1293,24 +1284,12 @@
       <c r="A28" s="5">
         <v>27.0</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="10">
-        <v>44873.0</v>
-      </c>
-      <c r="E28" s="11">
-        <v>365.0</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>86</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="5">
@@ -1319,7 +1298,7 @@
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="8"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
@@ -1330,7 +1309,7 @@
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="8"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
@@ -1341,7 +1320,7 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
@@ -1352,7 +1331,7 @@
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
@@ -1363,7 +1342,7 @@
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
@@ -1374,7 +1353,7 @@
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
@@ -1385,7 +1364,7 @@
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
@@ -1396,7 +1375,7 @@
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
@@ -1407,7 +1386,7 @@
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
@@ -1418,7 +1397,7 @@
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -264,7 +264,7 @@
     <t>LUCAS FERREIRA</t>
   </si>
   <si>
-    <t>63e791de722d99140ef7d37882f571d8</t>
+    <t>10520c9b5d99e745b0a3a0977709fd42</t>
   </si>
   <si>
     <t>VENDA 24 (08/11)</t>

--- a/lista_cliente_bot_royale.xlsx
+++ b/lista_cliente_bot_royale.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
   <si>
     <t>NOME</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>SEBASTIÃO RIBEIRO</t>
-  </si>
-  <si>
-    <t>462d4beeccdc76e8ad1ac77d7a0c3401</t>
   </si>
   <si>
     <t>VENDA 14 (17/10)</t>
@@ -1062,9 +1059,7 @@
       <c r="B18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="7">
         <v>44851.0</v>
       </c>
@@ -1075,7 +1070,7 @@
         <v>21</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -1083,10 +1078,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="D19" s="7">
         <v>44852.0</v>
@@ -1098,7 +1093,7 @@
         <v>21</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -1106,10 +1101,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D20" s="7">
         <v>44852.0</v>
@@ -1121,7 +1116,7 @@
         <v>21</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -1129,10 +1124,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="D21" s="7">
         <v>44852.0</v>
@@ -1144,7 +1139,7 @@
         <v>21</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -1152,10 +1147,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="D22" s="7">
         <v>44855.0</v>
@@ -1175,10 +1170,10 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="D23" s="7">
         <v>44856.0</v>
@@ -1190,7 +1185,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -1198,10 +1193,10 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="D24" s="7">
         <v>44856.0</v>
@@ -1221,10 +1216,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="D25" s="7">
         <v>44863.0</v>
@@ -1236,7 +1231,7 @@
         <v>21</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -1244,10 +1239,10 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="D26" s="7">
         <v>44868.0</v>
@@ -1259,7 +1254,7 @@
         <v>21</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -1267,10 +1262,10 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="D27" s="7">
         <v>44873.0</v>
@@ -1282,7 +1277,7 @@
         <v>21</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -1290,10 +1285,10 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="D28" s="7">
         <v>44885.0</v>
@@ -1302,10 +1297,10 @@
         <v>365.0</v>
       </c>
       <c r="F28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
